--- a/biology/Médecine/René_Dumesnil/René_Dumesnil.xlsx
+++ b/biology/Médecine/René_Dumesnil/René_Dumesnil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Dumesnil</t>
+          <t>René_Dumesnil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Alphonse Adolphe Dumesnil (Rouen, 19 juin 1879 – Paris, 25 décembre 1967) est un médecin, critique littéraire et musical et musicographe français, reconnu comme l'un des meilleurs spécialistes de l'œuvre de Gustave Flaubert.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Dumesnil</t>
+          <t>René_Dumesnil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Dumesnil naît à Rouen le 19 juin 1879, au domicile de ses parents, no 67 rue du Pré. Il est le fils d'Adolphe Jules Dumesnil, âgé de trente-deux ans, caissier, et d'Alphonsine Honorine Ballon, âgée de trente-et-un ans, couturière. Il vit ses vingt-cinq premières années à Rouen, élève au lycée Corneille, puis étudiant à l'École de médecine. Son sujet de thèse est intitulé Flaubert, son hérédité, son milieu, sa méthode[1].
-Il étudie la littérature à la Sorbonne et devient critique littéraire[2], écrivant plus tard en tant que critique musical au Mercure de France, Le Monde, Le Petit Journal et dans Musica. Dans ce genre, il est qualifié d'« impartial, scrupuleux et précis »[3].
-Il est élu à l'Académie des beaux-arts en 1965[2]. Il livre des publications dans le domaine littéraire, notamment de nombreuses études sur Flaubert, Maupassant et le réalisme. Il est « reconnu comme l'un des meilleurs spécialistes de l'œuvre de Gustave Flaubert »[3], donnant une édition critique pour Les Belles Lettres, le tout récompensée en 1949, par le prix national de littérature.
-Il publie également d'excellents ouvrages de vulgarisation et de synthèse sur la musique, aux sujets très divers, tels La musique en France en les deux guerres, 1919–1939 (1946), La Musique contemporaine en France (2e éd. 1949) et plusieurs ouvrages sur l'opéra, Mozart, les romantiques et Wagner. Il complète l'ouvrage d'histoire de la musique de Jules Combarieu en rédigeant les deux derniers des cinq tomes, consacrés respectivement à l'aube et la première moitié du XXe siècle (1958–1960)[3].
-Vers 1905, il fait la connaissance de l'écrivain Joris-Karl Huysmans (1848-1907) et devient son « disciple », selon le témoignage de Lucien Descaves, exécuteur testamentaire de Huysmans[4].
-René Dumesnil s'est marié à Paris, dans le 7e arrondissement, le 2 juillet 1907, avec Louise Laporte ; et à Paris, dans le 15e, le 8 avril 1929, avec Jeanne Marthe Bailly[5]. En 1928, il habite au no 126 de l'avenue Émile-Zola à Paris[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Dumesnil naît à Rouen le 19 juin 1879, au domicile de ses parents, no 67 rue du Pré. Il est le fils d'Adolphe Jules Dumesnil, âgé de trente-deux ans, caissier, et d'Alphonsine Honorine Ballon, âgée de trente-et-un ans, couturière. Il vit ses vingt-cinq premières années à Rouen, élève au lycée Corneille, puis étudiant à l'École de médecine. Son sujet de thèse est intitulé Flaubert, son hérédité, son milieu, sa méthode.
+Il étudie la littérature à la Sorbonne et devient critique littéraire, écrivant plus tard en tant que critique musical au Mercure de France, Le Monde, Le Petit Journal et dans Musica. Dans ce genre, il est qualifié d'« impartial, scrupuleux et précis ».
+Il est élu à l'Académie des beaux-arts en 1965. Il livre des publications dans le domaine littéraire, notamment de nombreuses études sur Flaubert, Maupassant et le réalisme. Il est « reconnu comme l'un des meilleurs spécialistes de l'œuvre de Gustave Flaubert », donnant une édition critique pour Les Belles Lettres, le tout récompensée en 1949, par le prix national de littérature.
+Il publie également d'excellents ouvrages de vulgarisation et de synthèse sur la musique, aux sujets très divers, tels La musique en France en les deux guerres, 1919–1939 (1946), La Musique contemporaine en France (2e éd. 1949) et plusieurs ouvrages sur l'opéra, Mozart, les romantiques et Wagner. Il complète l'ouvrage d'histoire de la musique de Jules Combarieu en rédigeant les deux derniers des cinq tomes, consacrés respectivement à l'aube et la première moitié du XXe siècle (1958–1960).
+Vers 1905, il fait la connaissance de l'écrivain Joris-Karl Huysmans (1848-1907) et devient son « disciple », selon le témoignage de Lucien Descaves, exécuteur testamentaire de Huysmans.
+René Dumesnil s'est marié à Paris, dans le 7e arrondissement, le 2 juillet 1907, avec Louise Laporte ; et à Paris, dans le 15e, le 8 avril 1929, avec Jeanne Marthe Bailly. En 1928, il habite au no 126 de l'avenue Émile-Zola à Paris.
 L’Académie française lui décerne le prix Vitet en 1934, le prix Broquette-Gonin en 1937 et 1959, le prix d’Académie en 1943 et le prix Charles Blanc en 1961.
-Il est mort à Paris le 25 décembre 1967[5].
+Il est mort à Paris le 25 décembre 1967.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Dumesnil</t>
+          <t>René_Dumesnil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,11 +563,48 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ses écrits publiés à Paris (sauf indication contraire) sont les suivants :
-Critique et histoire littéraire
-Flaubert, son hérédité, son milieu, sa méthode, 1903 [lire en ligne]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses écrits publiés à Paris (sauf indication contraire) sont les suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>René_Dumesnil</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Dumesnil</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Critique et histoire littéraire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Flaubert, son hérédité, son milieu, sa méthode, 1903 [lire en ligne]
 Autour de Flaubert : études historiques et documentaires, 1912 (en collaboration avec René Descharmes) [lire en ligne].
 La France de Balzac, 1922 (en collaboration avec Henri Bachelin) [inédit].
 La Trappe d’Igny: retraite de J.-K. Huysmans, 1922
@@ -568,19 +619,155 @@
 Le grand amour de Flaubert, 1945.
 Guy de Maupassant, l'homme et l'œuvre, 1947.
 Le Réalisme et le Naturalisme, 1955.
-Le Rideau à l'italienne, 1959
-Essais, histoire
-Supplément aux Ridicules du Temps, de Barbey d'Aurevilly, Paris, Éditions du Trianon, 1929.
+Le Rideau à l'italienne, 1959</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>René_Dumesnil</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Dumesnil</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essais, histoire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Supplément aux Ridicules du Temps, de Barbey d'Aurevilly, Paris, Éditions du Trianon, 1929.
 La Seine normande, Paris, J. de Gigord, 1935.
 Histoire illustrée de la médecine, Paris, Plon, 1936.
-L'Âme du Médecin, Paris, Plon, 1938.
-Romans et contes
-L'Absence, 1919
-Quatre histoires couleur des saisons, 1924
-Œuvre musicale
-Les Santons, ballet en un acte, 1938.
-Musicographie
-Le Rythme musical , 1921 ; 2e éd. augmentée, 1949[7].
+L'Âme du Médecin, Paris, Plon, 1938.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>René_Dumesnil</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Dumesnil</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans et contes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Absence, 1919
+Quatre histoires couleur des saisons, 1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>René_Dumesnil</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Dumesnil</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Œuvre musicale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Santons, ballet en un acte, 1938.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>René_Dumesnil</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Dumesnil</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Musicographie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Rythme musical , 1921 ; 2e éd. augmentée, 1949.
 Le Monde des musiciens, coll. « Paris intellectuel et artistique », Crès 1924 (OCLC 250496120).
 Le Don Juan de Mozart — Plon 1927 ; 2e éd. augmentée, 1955 (OCLC 995567288).
 Musiciens romantiques — 1928.
